--- a/database/industries/folad/faspa/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/faspa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0769B3D-B74C-4984-A65B-DF67D5116A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1863D231-7529-4BD8-A34A-8E72B03B0A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -685,12 +685,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -705,7 +705,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -754,7 +754,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -803,7 +803,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -840,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -855,7 +855,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -911,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -950,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -989,7 +989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>34175</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>-672</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>33529</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>34</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>42991</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1706,7 +1706,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>19</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>22</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>7781908</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>25</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>7781908</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>41</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>29</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>30</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>699873</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>31</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>699873</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>42</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>34</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>35</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>37</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>38</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>8495313</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2611,7 +2611,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2626,7 +2626,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2641,7 +2641,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>43</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>44</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>19</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>21</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>22</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>227707623</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>23</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>25</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>26</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>47</v>
       </c>
@@ -3039,7 +3039,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>21</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>29</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>30</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>168644096</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>26</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>48</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>33</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3305,7 +3305,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3320,7 +3320,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3335,7 +3335,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>49</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3387,7 +3387,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>50</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>-5797</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>20</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>22</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>-7037426</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>23</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>25</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>26</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>51</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>-7033027</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>52</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>21</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>29</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>30</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>-809700</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>26</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
         <v>53</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>-809700</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>54</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>33</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>-180714</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>55</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>-180714</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
         <v>35</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="16" t="s">
         <v>37</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>38</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>-8023441</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4225,7 +4225,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4240,7 +4240,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4255,7 +4255,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>56</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4307,7 +4307,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>57</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>16</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>-5797</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>19</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>20</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>21</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>22</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>744482</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>23</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>25</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>26</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="s">
         <v>58</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>748881</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>59</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>19</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>21</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>29</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>30</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>-109827</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="16" t="s">
         <v>60</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>-109827</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>61</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>33</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>-167182</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="16" t="s">
         <v>62</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>-167182</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
         <v>38</v>
       </c>
